--- a/Oferta asignaturas.xlsx
+++ b/Oferta asignaturas.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="247">
   <si>
     <t xml:space="preserve">Referencia</t>
   </si>
@@ -109,34 +109,22 @@
     <t xml:space="preserve">Miércoles</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fundamentos Físicos de la Informática</t>
   </si>
   <si>
     <t xml:space="preserve">Jueves</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fundamentos de Electrónica</t>
   </si>
   <si>
     <t xml:space="preserve">Viernes</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fundamentos de la Programación</t>
   </si>
   <si>
     <t xml:space="preserve">Solo un grupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">Matemática Discreta</t>
@@ -1167,14 +1155,14 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,13 +1479,13 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="1" sqref="2:2 B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,8 +2210,8 @@
   </sheetPr>
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V83" activeCellId="0" sqref="V83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2240,7 +2228,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,8 +2360,8 @@
       <c r="U2" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>26</v>
+      <c r="V2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,7 +2378,7 @@
         <v>50659</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>1</v>
@@ -2429,7 +2417,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T3" s="11" t="n">
         <v>0.364583333333333</v>
@@ -2437,8 +2425,8 @@
       <c r="U3" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>29</v>
+      <c r="V3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,7 +2443,7 @@
         <v>50660</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>1</v>
@@ -2485,7 +2473,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="11" t="n">
         <v>0.364583333333333</v>
@@ -2494,7 +2482,7 @@
         <v>0.4375</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T4" s="11" t="n">
         <v>0.447916666666667</v>
@@ -2502,8 +2490,8 @@
       <c r="U4" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>32</v>
+      <c r="V4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2508,7 @@
         <v>50661</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>1</v>
@@ -2541,10 +2529,10 @@
         <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="11" t="n">
         <v>0.364583333333333</v>
@@ -2553,7 +2541,7 @@
         <v>0.4375</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="11" t="n">
         <v>0.447916666666667</v>
@@ -2570,8 +2558,8 @@
       <c r="U5" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>35</v>
+      <c r="V5" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,7 +2576,7 @@
         <v>50662</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>1</v>
@@ -2609,7 +2597,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N6" s="11" t="n">
         <v>0.447916666666667</v>
@@ -2635,8 +2623,8 @@
       <c r="U6" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>26</v>
+      <c r="V6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,7 +2641,7 @@
         <v>50663</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>1</v>
@@ -2668,7 +2656,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>22</v>
@@ -2700,8 +2688,8 @@
       <c r="U7" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>29</v>
+      <c r="V7" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,7 +2706,7 @@
         <v>50664</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>1</v>
@@ -2733,7 +2721,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>22</v>
@@ -2757,7 +2745,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T8" s="11" t="n">
         <v>0.53125</v>
@@ -2765,8 +2753,8 @@
       <c r="U8" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V8" s="0" t="s">
-        <v>32</v>
+      <c r="V8" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,7 +2771,7 @@
         <v>50665</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>1</v>
@@ -2798,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>22</v>
@@ -2813,7 +2801,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="11" t="n">
         <v>0.53125</v>
@@ -2822,7 +2810,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T9" s="11" t="n">
         <v>0.364583333333333</v>
@@ -2830,8 +2818,8 @@
       <c r="U9" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V9" s="0" t="s">
-        <v>35</v>
+      <c r="V9" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,7 +2836,7 @@
         <v>50666</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>1</v>
@@ -2863,16 +2851,16 @@
         <v>6</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="11" t="n">
         <v>0.53125</v>
@@ -2881,7 +2869,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="11" t="n">
         <v>0.364583333333333</v>
@@ -2898,8 +2886,8 @@
       <c r="U10" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V10" s="0" t="s">
-        <v>26</v>
+      <c r="V10" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,7 +2904,7 @@
         <v>50667</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>1</v>
@@ -2931,16 +2919,16 @@
         <v>6</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N11" s="11" t="n">
         <v>0.364583333333333</v>
@@ -2966,8 +2954,8 @@
       <c r="U11" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V11" s="0" t="s">
-        <v>29</v>
+      <c r="V11" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,7 +2972,7 @@
         <v>50994</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
@@ -3005,7 +2993,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>23</v>
@@ -3034,8 +3022,8 @@
       <c r="U12" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V12" s="0" t="s">
-        <v>32</v>
+      <c r="V12" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,7 +3040,7 @@
         <v>50995</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>2</v>
@@ -3073,7 +3061,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>24</v>
@@ -3094,7 +3082,7 @@
         <v>0.4375</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T13" s="11" t="n">
         <v>0.447916666666667</v>
@@ -3102,8 +3090,8 @@
       <c r="U13" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V13" s="0" t="s">
-        <v>35</v>
+      <c r="V13" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,7 +3108,7 @@
         <v>50996</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>2</v>
@@ -3141,7 +3129,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>25</v>
@@ -3153,7 +3141,7 @@
         <v>0.4375</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="11" t="n">
         <v>0.447916666666667</v>
@@ -3162,7 +3150,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T14" s="11" t="n">
         <v>0.53125</v>
@@ -3170,8 +3158,8 @@
       <c r="U14" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V14" s="0" t="s">
-        <v>26</v>
+      <c r="V14" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,7 +3176,7 @@
         <v>50997</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>2</v>
@@ -3209,10 +3197,10 @@
         <v>22</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" s="11" t="n">
         <v>0.447916666666667</v>
@@ -3221,7 +3209,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="11" t="n">
         <v>0.53125</v>
@@ -3238,8 +3226,8 @@
       <c r="U15" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V15" s="0" t="s">
-        <v>29</v>
+      <c r="V15" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,7 +3244,7 @@
         <v>50998</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>2</v>
@@ -3277,10 +3265,10 @@
         <v>22</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N16" s="11" t="n">
         <v>0.53125</v>
@@ -3306,8 +3294,8 @@
       <c r="U16" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V16" s="0" t="s">
-        <v>32</v>
+      <c r="V16" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,7 +3312,7 @@
         <v>50999</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>2</v>
@@ -3339,13 +3327,13 @@
         <v>6</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>23</v>
@@ -3374,8 +3362,8 @@
       <c r="U17" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V17" s="0" t="s">
-        <v>35</v>
+      <c r="V17" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,7 +3380,7 @@
         <v>51000</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>2</v>
@@ -3407,13 +3395,13 @@
         <v>6</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>24</v>
@@ -3434,7 +3422,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T18" s="11" t="n">
         <v>0.364583333333333</v>
@@ -3442,8 +3430,8 @@
       <c r="U18" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V18" s="0" t="s">
-        <v>26</v>
+      <c r="V18" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,7 +3448,7 @@
         <v>51001</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>2</v>
@@ -3475,13 +3463,13 @@
         <v>6</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>25</v>
@@ -3493,7 +3481,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="11" t="n">
         <v>0.364583333333333</v>
@@ -3502,7 +3490,7 @@
         <v>0.4375</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T19" s="11" t="n">
         <v>0.447916666666667</v>
@@ -3510,8 +3498,8 @@
       <c r="U19" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V19" s="0" t="s">
-        <v>29</v>
+      <c r="V19" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +3516,7 @@
         <v>51002</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>2</v>
@@ -3543,16 +3531,16 @@
         <v>6</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" s="11" t="n">
         <v>0.364583333333333</v>
@@ -3561,7 +3549,7 @@
         <v>0.4375</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="11" t="n">
         <v>0.447916666666667</v>
@@ -3578,8 +3566,8 @@
       <c r="U20" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V20" s="0" t="s">
-        <v>32</v>
+      <c r="V20" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,7 +3584,7 @@
         <v>51003</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>2</v>
@@ -3611,16 +3599,16 @@
         <v>6</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N21" s="11" t="n">
         <v>0.447916666666667</v>
@@ -3646,8 +3634,8 @@
       <c r="U21" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V21" s="0" t="s">
-        <v>35</v>
+      <c r="V21" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,7 +3652,7 @@
         <v>51005</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>3</v>
@@ -3682,7 +3670,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>23</v>
@@ -3711,8 +3699,8 @@
       <c r="U22" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V22" s="0" t="s">
-        <v>26</v>
+      <c r="V22" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,7 +3717,7 @@
         <v>51006</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>3</v>
@@ -3768,7 +3756,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T23" s="11" t="n">
         <v>0.53125</v>
@@ -3776,8 +3764,8 @@
       <c r="U23" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V23" s="0" t="s">
-        <v>29</v>
+      <c r="V23" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,7 +3782,7 @@
         <v>51007</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>3</v>
@@ -3824,7 +3812,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="11" t="n">
         <v>0.53125</v>
@@ -3833,7 +3821,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T24" s="11" t="n">
         <v>0.364583333333333</v>
@@ -3841,8 +3829,8 @@
       <c r="U24" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V24" s="0" t="s">
-        <v>32</v>
+      <c r="V24" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,7 +3847,7 @@
         <v>51008</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>3</v>
@@ -3877,10 +3865,10 @@
         <v>21</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N25" s="11" t="n">
         <v>0.53125</v>
@@ -3889,7 +3877,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q25" s="11" t="n">
         <v>0.364583333333333</v>
@@ -3906,8 +3894,8 @@
       <c r="U25" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V25" s="0" t="s">
-        <v>35</v>
+      <c r="V25" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,7 +3912,7 @@
         <v>51009</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>3</v>
@@ -3945,7 +3933,7 @@
         <v>22</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N26" s="11" t="n">
         <v>0.364583333333333</v>
@@ -3971,8 +3959,8 @@
       <c r="U26" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V26" s="0" t="s">
-        <v>26</v>
+      <c r="V26" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,7 +3968,7 @@
         <v>1041</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>809</v>
@@ -3989,7 +3977,7 @@
         <v>51010</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>3</v>
@@ -4007,7 +3995,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>23</v>
@@ -4036,8 +4024,8 @@
       <c r="U27" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V27" s="0" t="s">
-        <v>29</v>
+      <c r="V27" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,7 +4042,7 @@
         <v>51011</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>3</v>
@@ -4093,7 +4081,7 @@
         <v>0.4375</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T28" s="11" t="n">
         <v>0.447916666666667</v>
@@ -4101,8 +4089,8 @@
       <c r="U28" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V28" s="0" t="s">
-        <v>32</v>
+      <c r="V28" s="0" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4098,7 @@
         <v>1041</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>811</v>
@@ -4119,7 +4107,7 @@
         <v>51012</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>3</v>
@@ -4137,7 +4125,7 @@
         <v>21</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>25</v>
@@ -4149,7 +4137,7 @@
         <v>0.4375</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="11" t="n">
         <v>0.447916666666667</v>
@@ -4158,7 +4146,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T29" s="11" t="n">
         <v>0.53125</v>
@@ -4166,8 +4154,8 @@
       <c r="U29" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V29" s="0" t="s">
-        <v>35</v>
+      <c r="V29" s="0" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,7 +4172,7 @@
         <v>51013</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>3</v>
@@ -4199,13 +4187,13 @@
         <v>6</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N30" s="11" t="n">
         <v>0.447916666666667</v>
@@ -4214,7 +4202,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="11" t="n">
         <v>0.53125</v>
@@ -4231,8 +4219,8 @@
       <c r="U30" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V30" s="0" t="s">
-        <v>26</v>
+      <c r="V30" s="0" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,7 +4237,7 @@
         <v>51014</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>3</v>
@@ -4270,7 +4258,7 @@
         <v>35</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N31" s="11" t="n">
         <v>0.53125</v>
@@ -4296,8 +4284,8 @@
       <c r="U31" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V31" s="0" t="s">
-        <v>29</v>
+      <c r="V31" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,7 +4302,7 @@
         <v>51015</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>3</v>
@@ -4329,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>22</v>
@@ -4361,8 +4349,8 @@
       <c r="U32" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V32" s="0" t="s">
-        <v>32</v>
+      <c r="V32" s="0" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,7 +4367,7 @@
         <v>51016</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>3</v>
@@ -4394,10 +4382,10 @@
         <v>6</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>24</v>
@@ -4418,7 +4406,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T33" s="11" t="n">
         <v>0.364583333333333</v>
@@ -4426,8 +4414,8 @@
       <c r="U33" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V33" s="0" t="s">
-        <v>35</v>
+      <c r="V33" s="0" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,7 +4432,7 @@
         <v>51017</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>3</v>
@@ -4462,7 +4450,7 @@
         <v>21</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>25</v>
@@ -4474,7 +4462,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="11" t="n">
         <v>0.364583333333333</v>
@@ -4483,7 +4471,7 @@
         <v>0.4375</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T34" s="11" t="n">
         <v>0.447916666666667</v>
@@ -4491,8 +4479,8 @@
       <c r="U34" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V34" s="0" t="s">
-        <v>26</v>
+      <c r="V34" s="0" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4497,7 @@
         <v>51018</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>3</v>
@@ -4530,7 +4518,7 @@
         <v>35</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N35" s="11" t="n">
         <v>0.364583333333333</v>
@@ -4539,7 +4527,7 @@
         <v>0.4375</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q35" s="11" t="n">
         <v>0.447916666666667</v>
@@ -4556,8 +4544,8 @@
       <c r="U35" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V35" s="0" t="s">
-        <v>29</v>
+      <c r="V35" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,7 +4562,7 @@
         <v>51019</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>3</v>
@@ -4595,7 +4583,7 @@
         <v>35</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N36" s="11" t="n">
         <v>0.447916666666667</v>
@@ -4621,8 +4609,8 @@
       <c r="U36" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V36" s="0" t="s">
-        <v>32</v>
+      <c r="V36" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +4627,7 @@
         <v>51020</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>3</v>
@@ -4654,7 +4642,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K37" s="10" t="n">
         <v>35</v>
@@ -4686,8 +4674,8 @@
       <c r="U37" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V37" s="0" t="s">
-        <v>35</v>
+      <c r="V37" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,7 +4692,7 @@
         <v>51021</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>3</v>
@@ -4719,7 +4707,7 @@
         <v>6</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K38" s="10" t="n">
         <v>35</v>
@@ -4743,7 +4731,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T38" s="11" t="n">
         <v>0.53125</v>
@@ -4751,8 +4739,8 @@
       <c r="U38" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V38" s="0" t="s">
-        <v>26</v>
+      <c r="V38" s="0" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,7 +4757,7 @@
         <v>51022</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>3</v>
@@ -4784,10 +4772,10 @@
         <v>6</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>25</v>
@@ -4799,7 +4787,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q39" s="11" t="n">
         <v>0.53125</v>
@@ -4808,7 +4796,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T39" s="11" t="n">
         <v>0.364583333333333</v>
@@ -4816,8 +4804,8 @@
       <c r="U39" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V39" s="0" t="s">
-        <v>29</v>
+      <c r="V39" s="0" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,7 +4822,7 @@
         <v>51023</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>3</v>
@@ -4849,13 +4837,13 @@
         <v>6</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K40" s="10" t="n">
         <v>35</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N40" s="11" t="n">
         <v>0.53125</v>
@@ -4864,7 +4852,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q40" s="11" t="n">
         <v>0.364583333333333</v>
@@ -4881,8 +4869,8 @@
       <c r="U40" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V40" s="0" t="s">
-        <v>32</v>
+      <c r="V40" s="0" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,7 +4887,7 @@
         <v>51024</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>3</v>
@@ -4914,13 +4902,13 @@
         <v>6</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>22</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N41" s="11" t="n">
         <v>0.364583333333333</v>
@@ -4946,8 +4934,8 @@
       <c r="U41" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V41" s="0" t="s">
-        <v>35</v>
+      <c r="V41" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,7 +4952,7 @@
         <v>51025</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>3</v>
@@ -4979,7 +4967,7 @@
         <v>6</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>22</v>
@@ -5011,8 +4999,8 @@
       <c r="U42" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V42" s="0" t="s">
-        <v>26</v>
+      <c r="V42" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,7 +5017,7 @@
         <v>51026</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>3</v>
@@ -5068,7 +5056,7 @@
         <v>0.4375</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T43" s="11" t="n">
         <v>0.447916666666667</v>
@@ -5076,8 +5064,8 @@
       <c r="U43" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V43" s="0" t="s">
-        <v>29</v>
+      <c r="V43" s="0" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,7 +5082,7 @@
         <v>51027</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>4</v>
@@ -5112,7 +5100,7 @@
         <v>21</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>25</v>
@@ -5124,7 +5112,7 @@
         <v>0.4375</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="11" t="n">
         <v>0.447916666666667</v>
@@ -5133,7 +5121,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T44" s="11" t="n">
         <v>0.53125</v>
@@ -5141,8 +5129,8 @@
       <c r="U44" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V44" s="0" t="s">
-        <v>32</v>
+      <c r="V44" s="0" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,7 +5147,7 @@
         <v>51028</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>4</v>
@@ -5177,10 +5165,10 @@
         <v>21</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N45" s="11" t="n">
         <v>0.447916666666667</v>
@@ -5189,7 +5177,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q45" s="11" t="n">
         <v>0.53125</v>
@@ -5206,8 +5194,8 @@
       <c r="U45" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V45" s="0" t="s">
-        <v>35</v>
+      <c r="V45" s="0" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +5212,7 @@
         <v>51029</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>4</v>
@@ -5242,10 +5230,10 @@
         <v>21</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N46" s="11" t="n">
         <v>0.53125</v>
@@ -5271,8 +5259,8 @@
       <c r="U46" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V46" s="0" t="s">
-        <v>26</v>
+      <c r="V46" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,7 +5277,7 @@
         <v>51030</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>3</v>
@@ -5304,7 +5292,7 @@
         <v>6</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K47" s="10" t="n">
         <v>35</v>
@@ -5336,8 +5324,8 @@
       <c r="U47" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V47" s="0" t="s">
-        <v>29</v>
+      <c r="V47" s="0" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,7 +5342,7 @@
         <v>51031</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>4</v>
@@ -5393,7 +5381,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T48" s="11" t="n">
         <v>0.364583333333333</v>
@@ -5401,8 +5389,8 @@
       <c r="U48" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V48" s="0" t="s">
-        <v>32</v>
+      <c r="V48" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,7 +5407,7 @@
         <v>51032</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>4</v>
@@ -5437,7 +5425,7 @@
         <v>21</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M49" s="0" t="s">
         <v>25</v>
@@ -5449,7 +5437,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q49" s="11" t="n">
         <v>0.364583333333333</v>
@@ -5458,7 +5446,7 @@
         <v>0.4375</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T49" s="11" t="n">
         <v>0.447916666666667</v>
@@ -5466,8 +5454,8 @@
       <c r="U49" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V49" s="0" t="s">
-        <v>35</v>
+      <c r="V49" s="0" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5484,7 +5472,7 @@
         <v>51033</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>4</v>
@@ -5502,10 +5490,10 @@
         <v>21</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N50" s="11" t="n">
         <v>0.364583333333333</v>
@@ -5514,7 +5502,7 @@
         <v>0.4375</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q50" s="11" t="n">
         <v>0.447916666666667</v>
@@ -5531,8 +5519,8 @@
       <c r="U50" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V50" s="0" t="s">
-        <v>26</v>
+      <c r="V50" s="0" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,7 +5537,7 @@
         <v>51034</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>4</v>
@@ -5567,10 +5555,10 @@
         <v>21</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N51" s="11" t="n">
         <v>0.447916666666667</v>
@@ -5596,8 +5584,8 @@
       <c r="U51" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V51" s="0" t="s">
-        <v>29</v>
+      <c r="V51" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,7 +5593,7 @@
         <v>1041</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>805</v>
@@ -5614,7 +5602,7 @@
         <v>51035</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>4</v>
@@ -5632,7 +5620,7 @@
         <v>21</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M52" s="0" t="s">
         <v>23</v>
@@ -5661,8 +5649,8 @@
       <c r="U52" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V52" s="0" t="s">
-        <v>32</v>
+      <c r="V52" s="0" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,7 +5667,7 @@
         <v>51036</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>4</v>
@@ -5697,7 +5685,7 @@
         <v>21</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M53" s="0" t="s">
         <v>24</v>
@@ -5718,7 +5706,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T53" s="11" t="n">
         <v>0.53125</v>
@@ -5726,8 +5714,8 @@
       <c r="U53" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V53" s="0" t="s">
-        <v>35</v>
+      <c r="V53" s="0" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,7 +5732,7 @@
         <v>51037</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>4</v>
@@ -5762,7 +5750,7 @@
         <v>21</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M54" s="0" t="s">
         <v>25</v>
@@ -5774,7 +5762,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q54" s="11" t="n">
         <v>0.53125</v>
@@ -5783,7 +5771,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T54" s="11" t="n">
         <v>0.364583333333333</v>
@@ -5791,8 +5779,8 @@
       <c r="U54" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V54" s="0" t="s">
-        <v>26</v>
+      <c r="V54" s="0" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5809,7 +5797,7 @@
         <v>51038</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>4</v>
@@ -5827,10 +5815,10 @@
         <v>21</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N55" s="11" t="n">
         <v>0.53125</v>
@@ -5839,7 +5827,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q55" s="11" t="n">
         <v>0.364583333333333</v>
@@ -5856,8 +5844,8 @@
       <c r="U55" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V55" s="0" t="s">
-        <v>29</v>
+      <c r="V55" s="0" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5874,7 +5862,7 @@
         <v>51039</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>3</v>
@@ -5889,13 +5877,13 @@
         <v>6</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K56" s="10" t="n">
         <v>35</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N56" s="11" t="n">
         <v>0.364583333333333</v>
@@ -5921,8 +5909,8 @@
       <c r="U56" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V56" s="0" t="s">
-        <v>32</v>
+      <c r="V56" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,7 +5927,7 @@
         <v>51040</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>3</v>
@@ -5954,7 +5942,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K57" s="10" t="n">
         <v>35</v>
@@ -5986,8 +5974,8 @@
       <c r="U57" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V57" s="0" t="s">
-        <v>35</v>
+      <c r="V57" s="0" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,7 +5992,7 @@
         <v>51041</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>4</v>
@@ -6022,7 +6010,7 @@
         <v>21</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M58" s="0" t="s">
         <v>24</v>
@@ -6043,7 +6031,7 @@
         <v>0.4375</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T58" s="11" t="n">
         <v>0.447916666666667</v>
@@ -6051,8 +6039,8 @@
       <c r="U58" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V58" s="0" t="s">
-        <v>26</v>
+      <c r="V58" s="0" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,7 +6048,7 @@
         <v>1041</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>812</v>
@@ -6069,7 +6057,7 @@
         <v>51042</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>4</v>
@@ -6087,7 +6075,7 @@
         <v>21</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M59" s="0" t="s">
         <v>25</v>
@@ -6099,7 +6087,7 @@
         <v>0.4375</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q59" s="11" t="n">
         <v>0.447916666666667</v>
@@ -6108,7 +6096,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T59" s="11" t="n">
         <v>0.53125</v>
@@ -6116,8 +6104,8 @@
       <c r="U59" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V59" s="0" t="s">
-        <v>29</v>
+      <c r="V59" s="0" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,7 +6122,7 @@
         <v>51043</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>4</v>
@@ -6152,10 +6140,10 @@
         <v>21</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N60" s="11" t="n">
         <v>0.447916666666667</v>
@@ -6164,7 +6152,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q60" s="11" t="n">
         <v>0.53125</v>
@@ -6181,8 +6169,8 @@
       <c r="U60" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V60" s="0" t="s">
-        <v>32</v>
+      <c r="V60" s="0" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6199,7 +6187,7 @@
         <v>51044</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>3</v>
@@ -6220,7 +6208,7 @@
         <v>35</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N61" s="11" t="n">
         <v>0.53125</v>
@@ -6246,8 +6234,8 @@
       <c r="U61" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V61" s="0" t="s">
-        <v>35</v>
+      <c r="V61" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,7 +6243,7 @@
         <v>1041</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>870</v>
@@ -6264,7 +6252,7 @@
         <v>51045</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>4</v>
@@ -6279,10 +6267,10 @@
         <v>6</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M62" s="0" t="s">
         <v>23</v>
@@ -6311,8 +6299,8 @@
       <c r="U62" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V62" s="0" t="s">
-        <v>26</v>
+      <c r="V62" s="0" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6329,7 +6317,7 @@
         <v>51046</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>4</v>
@@ -6347,7 +6335,7 @@
         <v>21</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>24</v>
@@ -6368,7 +6356,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T63" s="11" t="n">
         <v>0.364583333333333</v>
@@ -6376,8 +6364,8 @@
       <c r="U63" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V63" s="0" t="s">
-        <v>29</v>
+      <c r="V63" s="0" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6394,7 +6382,7 @@
         <v>51047</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>4</v>
@@ -6424,7 +6412,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q64" s="11" t="n">
         <v>0.364583333333333</v>
@@ -6433,7 +6421,7 @@
         <v>0.4375</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T64" s="11" t="n">
         <v>0.447916666666667</v>
@@ -6441,8 +6429,8 @@
       <c r="U64" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V64" s="0" t="s">
-        <v>32</v>
+      <c r="V64" s="0" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6450,7 +6438,7 @@
         <v>1041</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>855</v>
@@ -6459,7 +6447,7 @@
         <v>51048</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>4</v>
@@ -6474,13 +6462,13 @@
         <v>6</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N65" s="11" t="n">
         <v>0.364583333333333</v>
@@ -6489,7 +6477,7 @@
         <v>0.4375</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q65" s="11" t="n">
         <v>0.447916666666667</v>
@@ -6506,8 +6494,8 @@
       <c r="U65" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V65" s="0" t="s">
-        <v>35</v>
+      <c r="V65" s="0" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6524,7 +6512,7 @@
         <v>51049</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>3</v>
@@ -6539,13 +6527,13 @@
         <v>6</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K66" s="10" t="n">
         <v>35</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N66" s="11" t="n">
         <v>0.447916666666667</v>
@@ -6571,8 +6559,8 @@
       <c r="U66" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V66" s="0" t="s">
-        <v>26</v>
+      <c r="V66" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,7 +6577,7 @@
         <v>51050</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>4</v>
@@ -6604,7 +6592,7 @@
         <v>6</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K67" s="10" t="n">
         <v>35</v>
@@ -6636,8 +6624,8 @@
       <c r="U67" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V67" s="0" t="s">
-        <v>29</v>
+      <c r="V67" s="0" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,7 +6642,7 @@
         <v>51051</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>4</v>
@@ -6693,7 +6681,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T68" s="11" t="n">
         <v>0.53125</v>
@@ -6701,8 +6689,8 @@
       <c r="U68" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V68" s="0" t="s">
-        <v>32</v>
+      <c r="V68" s="0" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6710,7 +6698,7 @@
         <v>1041</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>859</v>
@@ -6719,7 +6707,7 @@
         <v>51052</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>4</v>
@@ -6734,10 +6722,10 @@
         <v>6</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>25</v>
@@ -6749,7 +6737,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q69" s="11" t="n">
         <v>0.53125</v>
@@ -6758,7 +6746,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T69" s="11" t="n">
         <v>0.364583333333333</v>
@@ -6766,8 +6754,8 @@
       <c r="U69" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V69" s="0" t="s">
-        <v>35</v>
+      <c r="V69" s="0" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,7 +6763,7 @@
         <v>1041</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>861</v>
@@ -6784,7 +6772,7 @@
         <v>51053</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>4</v>
@@ -6799,13 +6787,13 @@
         <v>6</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N70" s="11" t="n">
         <v>0.53125</v>
@@ -6814,7 +6802,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q70" s="11" t="n">
         <v>0.364583333333333</v>
@@ -6831,8 +6819,8 @@
       <c r="U70" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V70" s="0" t="s">
-        <v>26</v>
+      <c r="V70" s="0" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6840,7 +6828,7 @@
         <v>1041</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>867</v>
@@ -6849,7 +6837,7 @@
         <v>51054</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>4</v>
@@ -6864,13 +6852,13 @@
         <v>6</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N71" s="11" t="n">
         <v>0.364583333333333</v>
@@ -6896,8 +6884,8 @@
       <c r="U71" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V71" s="0" t="s">
-        <v>29</v>
+      <c r="V71" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6914,7 +6902,7 @@
         <v>51055</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>4</v>
@@ -6929,7 +6917,7 @@
         <v>6</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>22</v>
@@ -6961,8 +6949,8 @@
       <c r="U72" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V72" s="0" t="s">
-        <v>32</v>
+      <c r="V72" s="0" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,7 +6967,7 @@
         <v>51056</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>4</v>
@@ -6994,10 +6982,10 @@
         <v>12</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M73" s="0" t="s">
         <v>24</v>
@@ -7018,7 +7006,7 @@
         <v>0.4375</v>
       </c>
       <c r="S73" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T73" s="11" t="n">
         <v>0.447916666666667</v>
@@ -7026,8 +7014,8 @@
       <c r="U73" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V73" s="0" t="s">
-        <v>35</v>
+      <c r="V73" s="0" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7044,7 +7032,7 @@
         <v>51057</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>3</v>
@@ -7074,7 +7062,7 @@
         <v>0.4375</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q74" s="11" t="n">
         <v>0.447916666666667</v>
@@ -7083,7 +7071,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S74" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T74" s="11" t="n">
         <v>0.53125</v>
@@ -7091,8 +7079,8 @@
       <c r="U74" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V74" s="0" t="s">
-        <v>26</v>
+      <c r="V74" s="0" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7109,7 +7097,7 @@
         <v>51058</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>4</v>
@@ -7124,13 +7112,13 @@
         <v>6</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K75" s="10" t="n">
         <v>35</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N75" s="11" t="n">
         <v>0.447916666666667</v>
@@ -7139,7 +7127,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q75" s="11" t="n">
         <v>0.53125</v>
@@ -7156,8 +7144,8 @@
       <c r="U75" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V75" s="0" t="s">
-        <v>29</v>
+      <c r="V75" s="0" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,7 +7162,7 @@
         <v>51059</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>4</v>
@@ -7189,13 +7177,13 @@
         <v>12</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K76" s="10" t="s">
         <v>22</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N76" s="11" t="n">
         <v>0.53125</v>
@@ -7221,8 +7209,8 @@
       <c r="U76" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V76" s="0" t="s">
-        <v>32</v>
+      <c r="V76" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7239,7 +7227,7 @@
         <v>51190</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>4</v>
@@ -7254,7 +7242,7 @@
         <v>6</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K77" s="10" t="n">
         <v>35</v>
@@ -7286,8 +7274,8 @@
       <c r="U77" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V77" s="0" t="s">
-        <v>35</v>
+      <c r="V77" s="0" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,7 +7292,7 @@
         <v>51191</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>4</v>
@@ -7319,7 +7307,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K78" s="10" t="n">
         <v>35</v>
@@ -7343,7 +7331,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="S78" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T78" s="11" t="n">
         <v>0.364583333333333</v>
@@ -7351,8 +7339,8 @@
       <c r="U78" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V78" s="0" t="s">
-        <v>26</v>
+      <c r="V78" s="0" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,7 +7348,7 @@
         <v>1041</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>854</v>
@@ -7369,7 +7357,7 @@
         <v>51192</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>4</v>
@@ -7384,10 +7372,10 @@
         <v>6</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M79" s="0" t="s">
         <v>25</v>
@@ -7399,7 +7387,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q79" s="11" t="n">
         <v>0.364583333333333</v>
@@ -7408,7 +7396,7 @@
         <v>0.4375</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T79" s="11" t="n">
         <v>0.447916666666667</v>
@@ -7416,8 +7404,8 @@
       <c r="U79" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V79" s="0" t="s">
-        <v>29</v>
+      <c r="V79" s="0" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,7 +7422,7 @@
         <v>51730</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>4</v>
@@ -7449,13 +7437,13 @@
         <v>6</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K80" s="10" t="n">
         <v>35</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N80" s="11" t="n">
         <v>0.364583333333333</v>
@@ -7464,7 +7452,7 @@
         <v>0.4375</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q80" s="11" t="n">
         <v>0.447916666666667</v>
@@ -7481,8 +7469,8 @@
       <c r="U80" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V80" s="0" t="s">
-        <v>32</v>
+      <c r="V80" s="0" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7490,7 +7478,7 @@
         <v>1041</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>858</v>
@@ -7499,7 +7487,7 @@
         <v>51734</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>4</v>
@@ -7514,13 +7502,13 @@
         <v>6</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N81" s="11" t="n">
         <v>0.447916666666667</v>
@@ -7546,8 +7534,8 @@
       <c r="U81" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="V81" s="0" t="s">
-        <v>35</v>
+      <c r="V81" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,7 +7543,7 @@
         <v>1041</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>868</v>
@@ -7564,7 +7552,7 @@
         <v>51738</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>4</v>
@@ -7579,10 +7567,10 @@
         <v>6</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>23</v>
@@ -7611,8 +7599,8 @@
       <c r="U82" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="V82" s="0" t="s">
-        <v>26</v>
+      <c r="V82" s="0" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7620,7 +7608,7 @@
         <v>1041</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>801</v>
@@ -7629,7 +7617,7 @@
         <v>53158</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>3</v>
@@ -7647,7 +7635,7 @@
         <v>21</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>24</v>
@@ -7668,7 +7656,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="S83" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T83" s="11" t="n">
         <v>0.53125</v>
@@ -7676,11 +7664,11 @@
       <c r="U83" s="11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="V83" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V83" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7693,7 +7681,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7706,7 +7694,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7719,7 +7707,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7732,7 +7720,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -8404,7 +8392,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+      <selection pane="topLeft" activeCell="E35" activeCellId="1" sqref="2:2 E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8412,16 +8400,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8476,7 +8464,7 @@
         <v>51006</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>3</v>
@@ -8503,7 +8491,7 @@
         <v>1042</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>809</v>
@@ -8512,7 +8500,7 @@
         <v>51010</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>3</v>
@@ -8530,7 +8518,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -8539,7 +8527,7 @@
         <v>1042</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>811</v>
@@ -8548,7 +8536,7 @@
         <v>51012</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>3</v>
@@ -8566,7 +8554,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -8584,7 +8572,7 @@
         <v>51014</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>3</v>
@@ -8620,7 +8608,7 @@
         <v>51018</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>3</v>
@@ -8656,7 +8644,7 @@
         <v>51019</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>3</v>
@@ -8692,7 +8680,7 @@
         <v>51020</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>3</v>
@@ -8707,7 +8695,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K8" s="10" t="n">
         <v>35</v>
@@ -8728,7 +8716,7 @@
         <v>51021</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>3</v>
@@ -8743,7 +8731,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K9" s="10" t="n">
         <v>35</v>
@@ -8764,7 +8752,7 @@
         <v>51023</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>3</v>
@@ -8779,7 +8767,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K10" s="10" t="n">
         <v>35</v>
@@ -8800,7 +8788,7 @@
         <v>51026</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>3</v>
@@ -8836,7 +8824,7 @@
         <v>51030</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>3</v>
@@ -8851,7 +8839,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K12" s="10" t="n">
         <v>35</v>
@@ -8872,7 +8860,7 @@
         <v>51031</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>4</v>
@@ -8899,7 +8887,7 @@
         <v>1042</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>805</v>
@@ -8908,7 +8896,7 @@
         <v>51035</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>4</v>
@@ -8926,7 +8914,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -8944,7 +8932,7 @@
         <v>51039</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F15" s="10" t="n">
         <v>3</v>
@@ -8959,7 +8947,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K15" s="10" t="n">
         <v>35</v>
@@ -8980,7 +8968,7 @@
         <v>51040</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16" s="10" t="n">
         <v>3</v>
@@ -8995,7 +8983,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K16" s="10" t="n">
         <v>35</v>
@@ -9007,7 +8995,7 @@
         <v>1042</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>812</v>
@@ -9016,7 +9004,7 @@
         <v>51042</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F17" s="10" t="n">
         <v>4</v>
@@ -9034,7 +9022,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L17" s="2"/>
     </row>
@@ -9052,7 +9040,7 @@
         <v>51044</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>3</v>
@@ -9079,7 +9067,7 @@
         <v>1042</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>870</v>
@@ -9088,7 +9076,7 @@
         <v>51045</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F19" s="10" t="n">
         <v>4</v>
@@ -9103,10 +9091,10 @@
         <v>6</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -9124,7 +9112,7 @@
         <v>51047</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F20" s="10" t="n">
         <v>4</v>
@@ -9151,7 +9139,7 @@
         <v>1042</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>855</v>
@@ -9160,7 +9148,7 @@
         <v>51048</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>4</v>
@@ -9175,10 +9163,10 @@
         <v>6</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -9196,7 +9184,7 @@
         <v>51049</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F22" s="10" t="n">
         <v>3</v>
@@ -9211,7 +9199,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22" s="10" t="n">
         <v>35</v>
@@ -9232,7 +9220,7 @@
         <v>51050</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F23" s="10" t="n">
         <v>4</v>
@@ -9247,7 +9235,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K23" s="10" t="n">
         <v>35</v>
@@ -9268,7 +9256,7 @@
         <v>51051</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="10" t="n">
         <v>4</v>
@@ -9295,7 +9283,7 @@
         <v>1042</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>859</v>
@@ -9304,7 +9292,7 @@
         <v>51052</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F25" s="10" t="n">
         <v>4</v>
@@ -9319,10 +9307,10 @@
         <v>6</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L25" s="2"/>
     </row>
@@ -9331,7 +9319,7 @@
         <v>1042</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>861</v>
@@ -9340,7 +9328,7 @@
         <v>51053</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F26" s="10" t="n">
         <v>4</v>
@@ -9355,10 +9343,10 @@
         <v>6</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L26" s="2"/>
     </row>
@@ -9367,7 +9355,7 @@
         <v>1042</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>867</v>
@@ -9376,7 +9364,7 @@
         <v>51054</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>4</v>
@@ -9391,10 +9379,10 @@
         <v>6</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -9412,7 +9400,7 @@
         <v>51057</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>3</v>
@@ -9448,7 +9436,7 @@
         <v>51058</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>4</v>
@@ -9463,7 +9451,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K29" s="10" t="n">
         <v>35</v>
@@ -9520,7 +9508,7 @@
         <v>51139</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="10" t="n">
         <v>1</v>
@@ -9556,7 +9544,7 @@
         <v>51140</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F32" s="10" t="n">
         <v>1</v>
@@ -9592,7 +9580,7 @@
         <v>51141</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33" s="10" t="n">
         <v>1</v>
@@ -9613,7 +9601,7 @@
         <v>22</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9630,7 +9618,7 @@
         <v>51142</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F34" s="10" t="n">
         <v>1</v>
@@ -9666,7 +9654,7 @@
         <v>51143</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F35" s="10" t="n">
         <v>1</v>
@@ -9681,7 +9669,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>22</v>
@@ -9702,7 +9690,7 @@
         <v>51144</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F36" s="10" t="n">
         <v>1</v>
@@ -9717,7 +9705,7 @@
         <v>6</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>22</v>
@@ -9738,7 +9726,7 @@
         <v>51145</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F37" s="10" t="n">
         <v>1</v>
@@ -9753,7 +9741,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>22</v>
@@ -9774,7 +9762,7 @@
         <v>51146</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F38" s="10" t="n">
         <v>1</v>
@@ -9789,13 +9777,13 @@
         <v>6</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9812,7 +9800,7 @@
         <v>51147</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F39" s="10" t="n">
         <v>1</v>
@@ -9827,13 +9815,13 @@
         <v>6</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9850,7 +9838,7 @@
         <v>51148</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F40" s="10" t="n">
         <v>2</v>
@@ -9871,7 +9859,7 @@
         <v>22</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9888,7 +9876,7 @@
         <v>51149</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F41" s="10" t="n">
         <v>2</v>
@@ -9909,7 +9897,7 @@
         <v>22</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9926,7 +9914,7 @@
         <v>51150</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F42" s="10" t="n">
         <v>2</v>
@@ -9947,7 +9935,7 @@
         <v>22</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9964,7 +9952,7 @@
         <v>51151</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F43" s="10" t="n">
         <v>2</v>
@@ -9985,7 +9973,7 @@
         <v>22</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10002,7 +9990,7 @@
         <v>51152</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F44" s="10" t="n">
         <v>2</v>
@@ -10023,7 +10011,7 @@
         <v>22</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10040,7 +10028,7 @@
         <v>51153</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F45" s="10" t="n">
         <v>2</v>
@@ -10055,13 +10043,13 @@
         <v>6</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10078,7 +10066,7 @@
         <v>51154</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F46" s="10" t="n">
         <v>2</v>
@@ -10093,13 +10081,13 @@
         <v>6</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10116,7 +10104,7 @@
         <v>51155</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F47" s="10" t="n">
         <v>2</v>
@@ -10131,13 +10119,13 @@
         <v>6</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10154,7 +10142,7 @@
         <v>51156</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F48" s="10" t="n">
         <v>2</v>
@@ -10169,13 +10157,13 @@
         <v>6</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10192,7 +10180,7 @@
         <v>51157</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F49" s="10" t="n">
         <v>2</v>
@@ -10207,13 +10195,13 @@
         <v>6</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10230,7 +10218,7 @@
         <v>51160</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F50" s="10" t="n">
         <v>3</v>
@@ -10266,7 +10254,7 @@
         <v>51161</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F51" s="10" t="n">
         <v>3</v>
@@ -10302,7 +10290,7 @@
         <v>51162</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F52" s="10" t="n">
         <v>3</v>
@@ -10338,7 +10326,7 @@
         <v>51166</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F53" s="10" t="n">
         <v>3</v>
@@ -10374,7 +10362,7 @@
         <v>51169</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F54" s="10" t="n">
         <v>3</v>
@@ -10389,7 +10377,7 @@
         <v>6</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>22</v>
@@ -10410,7 +10398,7 @@
         <v>51171</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F55" s="10" t="n">
         <v>3</v>
@@ -10425,7 +10413,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>22</v>
@@ -10446,7 +10434,7 @@
         <v>51174</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F56" s="10" t="n">
         <v>3</v>
@@ -10461,7 +10449,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>22</v>
@@ -10482,7 +10470,7 @@
         <v>51175</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F57" s="10" t="n">
         <v>3</v>
@@ -10497,7 +10485,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>22</v>
@@ -10518,7 +10506,7 @@
         <v>51180</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F58" s="10" t="n">
         <v>4</v>
@@ -10554,7 +10542,7 @@
         <v>51181</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F59" s="10" t="n">
         <v>4</v>
@@ -10590,7 +10578,7 @@
         <v>51182</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F60" s="10" t="n">
         <v>4</v>
@@ -10626,7 +10614,7 @@
         <v>51186</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F61" s="10" t="n">
         <v>4</v>
@@ -10662,7 +10650,7 @@
         <v>51190</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F62" s="10" t="n">
         <v>4</v>
@@ -10677,7 +10665,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K62" s="10" t="n">
         <v>35</v>
@@ -10698,7 +10686,7 @@
         <v>51191</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F63" s="10" t="n">
         <v>4</v>
@@ -10713,7 +10701,7 @@
         <v>6</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K63" s="10" t="n">
         <v>35</v>
@@ -10725,7 +10713,7 @@
         <v>1042</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>854</v>
@@ -10734,7 +10722,7 @@
         <v>51192</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F64" s="10" t="n">
         <v>4</v>
@@ -10749,10 +10737,10 @@
         <v>6</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L64" s="2"/>
     </row>
@@ -10770,7 +10758,7 @@
         <v>51195</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F65" s="10" t="n">
         <v>4</v>
@@ -10785,7 +10773,7 @@
         <v>6</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>22</v>
@@ -10806,7 +10794,7 @@
         <v>51196</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F66" s="10" t="n">
         <v>4</v>
@@ -10821,10 +10809,10 @@
         <v>12</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L66" s="2"/>
     </row>
@@ -10842,7 +10830,7 @@
         <v>51198</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F67" s="10" t="n">
         <v>4</v>
@@ -10857,7 +10845,7 @@
         <v>12</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>22</v>
@@ -10878,7 +10866,7 @@
         <v>51730</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F68" s="10" t="n">
         <v>4</v>
@@ -10893,7 +10881,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K68" s="10" t="n">
         <v>35</v>
@@ -10905,7 +10893,7 @@
         <v>1042</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>858</v>
@@ -10914,7 +10902,7 @@
         <v>51734</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F69" s="10" t="n">
         <v>4</v>
@@ -10929,10 +10917,10 @@
         <v>6</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L69" s="2"/>
     </row>
@@ -10941,7 +10929,7 @@
         <v>1042</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>868</v>
@@ -10950,7 +10938,7 @@
         <v>51738</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F70" s="10" t="n">
         <v>4</v>
@@ -10965,10 +10953,10 @@
         <v>6</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L70" s="2"/>
     </row>
@@ -10977,7 +10965,7 @@
         <v>1042</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>801</v>
@@ -10986,7 +10974,7 @@
         <v>53158</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F71" s="10" t="n">
         <v>3</v>
@@ -11004,7 +10992,7 @@
         <v>21</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L71" s="2"/>
     </row>
@@ -11032,14 +11020,14 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+      <selection pane="topLeft" activeCell="E36" activeCellId="1" sqref="2:2 E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.42"/>
@@ -11048,7 +11036,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="6.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,7 +11065,7 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>13</v>
@@ -11103,7 +11091,7 @@
         <v>51006</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>3</v>
@@ -11121,7 +11109,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L2" s="2"/>
       <c r="Q2" s="13"/>
@@ -11131,7 +11119,7 @@
         <v>1043</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>809</v>
@@ -11140,7 +11128,7 @@
         <v>51010</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>3</v>
@@ -11158,7 +11146,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2"/>
       <c r="Q3" s="13"/>
@@ -11168,7 +11156,7 @@
         <v>1043</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>811</v>
@@ -11177,7 +11165,7 @@
         <v>51012</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>3</v>
@@ -11195,7 +11183,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2"/>
       <c r="Q4" s="13"/>
@@ -11214,7 +11202,7 @@
         <v>51014</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>3</v>
@@ -11232,7 +11220,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L5" s="2"/>
       <c r="Q5" s="13"/>
@@ -11251,7 +11239,7 @@
         <v>51018</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>3</v>
@@ -11269,7 +11257,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L6" s="2"/>
       <c r="Q6" s="13"/>
@@ -11288,7 +11276,7 @@
         <v>51019</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>3</v>
@@ -11306,7 +11294,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L7" s="2"/>
       <c r="Q7" s="13"/>
@@ -11325,7 +11313,7 @@
         <v>51020</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>3</v>
@@ -11340,10 +11328,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L8" s="2"/>
       <c r="Q8" s="13"/>
@@ -11362,7 +11350,7 @@
         <v>51021</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>3</v>
@@ -11377,10 +11365,10 @@
         <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L9" s="2"/>
       <c r="Q9" s="13"/>
@@ -11399,7 +11387,7 @@
         <v>51023</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>3</v>
@@ -11414,10 +11402,10 @@
         <v>6</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L10" s="2"/>
       <c r="Q10" s="13"/>
@@ -11436,7 +11424,7 @@
         <v>51026</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>3</v>
@@ -11454,7 +11442,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L11" s="2"/>
       <c r="Q11" s="13"/>
@@ -11473,7 +11461,7 @@
         <v>51030</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>3</v>
@@ -11488,10 +11476,10 @@
         <v>6</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L12" s="2"/>
       <c r="Q12" s="13"/>
@@ -11510,7 +11498,7 @@
         <v>51031</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>4</v>
@@ -11528,7 +11516,7 @@
         <v>21</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L13" s="2"/>
       <c r="Q13" s="13"/>
@@ -11538,7 +11526,7 @@
         <v>1043</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>805</v>
@@ -11547,7 +11535,7 @@
         <v>51035</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>4</v>
@@ -11565,7 +11553,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L14" s="2"/>
       <c r="Q14" s="13"/>
@@ -11584,7 +11572,7 @@
         <v>51039</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F15" s="10" t="n">
         <v>3</v>
@@ -11599,10 +11587,10 @@
         <v>6</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L15" s="2"/>
       <c r="Q15" s="13"/>
@@ -11621,7 +11609,7 @@
         <v>51040</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16" s="10" t="n">
         <v>3</v>
@@ -11636,10 +11624,10 @@
         <v>6</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L16" s="2"/>
       <c r="Q16" s="13"/>
@@ -11649,7 +11637,7 @@
         <v>1043</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>812</v>
@@ -11658,7 +11646,7 @@
         <v>51042</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F17" s="10" t="n">
         <v>4</v>
@@ -11676,7 +11664,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L17" s="2"/>
       <c r="Q17" s="13"/>
@@ -11695,7 +11683,7 @@
         <v>51044</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>3</v>
@@ -11713,7 +11701,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L18" s="2"/>
       <c r="Q18" s="13"/>
@@ -11723,7 +11711,7 @@
         <v>1043</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>870</v>
@@ -11732,7 +11720,7 @@
         <v>51045</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F19" s="10" t="n">
         <v>4</v>
@@ -11747,10 +11735,10 @@
         <v>6</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L19" s="2"/>
       <c r="Q19" s="13"/>
@@ -11769,7 +11757,7 @@
         <v>51047</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F20" s="10" t="n">
         <v>4</v>
@@ -11787,7 +11775,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L20" s="2"/>
       <c r="Q20" s="13"/>
@@ -11797,7 +11785,7 @@
         <v>1043</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>855</v>
@@ -11806,7 +11794,7 @@
         <v>51048</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>4</v>
@@ -11821,10 +11809,10 @@
         <v>6</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L21" s="2"/>
       <c r="Q21" s="13"/>
@@ -11843,7 +11831,7 @@
         <v>51049</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F22" s="10" t="n">
         <v>3</v>
@@ -11858,10 +11846,10 @@
         <v>6</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="2"/>
       <c r="Q22" s="13"/>
@@ -11880,7 +11868,7 @@
         <v>51050</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F23" s="10" t="n">
         <v>4</v>
@@ -11895,10 +11883,10 @@
         <v>6</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L23" s="2"/>
       <c r="Q23" s="13"/>
@@ -11917,7 +11905,7 @@
         <v>51051</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="10" t="n">
         <v>4</v>
@@ -11935,7 +11923,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L24" s="2"/>
       <c r="Q24" s="13"/>
@@ -11945,7 +11933,7 @@
         <v>1043</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>859</v>
@@ -11954,7 +11942,7 @@
         <v>51052</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F25" s="10" t="n">
         <v>4</v>
@@ -11969,10 +11957,10 @@
         <v>6</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L25" s="2"/>
       <c r="Q25" s="13"/>
@@ -11982,7 +11970,7 @@
         <v>1043</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>861</v>
@@ -11991,7 +11979,7 @@
         <v>51053</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F26" s="10" t="n">
         <v>4</v>
@@ -12006,10 +11994,10 @@
         <v>6</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L26" s="2"/>
       <c r="Q26" s="13"/>
@@ -12019,7 +12007,7 @@
         <v>1043</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>867</v>
@@ -12028,7 +12016,7 @@
         <v>51054</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>4</v>
@@ -12043,10 +12031,10 @@
         <v>6</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L27" s="2"/>
       <c r="Q27" s="13"/>
@@ -12065,7 +12053,7 @@
         <v>51057</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>3</v>
@@ -12083,7 +12071,7 @@
         <v>21</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L28" s="2"/>
       <c r="Q28" s="13"/>
@@ -12102,7 +12090,7 @@
         <v>51058</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>4</v>
@@ -12117,10 +12105,10 @@
         <v>6</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L29" s="2"/>
       <c r="Q29" s="13"/>
@@ -12139,7 +12127,7 @@
         <v>51190</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F30" s="10" t="n">
         <v>4</v>
@@ -12154,10 +12142,10 @@
         <v>6</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L30" s="2"/>
       <c r="Q30" s="13"/>
@@ -12176,7 +12164,7 @@
         <v>51191</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F31" s="10" t="n">
         <v>4</v>
@@ -12191,10 +12179,10 @@
         <v>6</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L31" s="2"/>
       <c r="Q31" s="13"/>
@@ -12204,7 +12192,7 @@
         <v>1043</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>854</v>
@@ -12213,7 +12201,7 @@
         <v>51192</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F32" s="10" t="n">
         <v>4</v>
@@ -12228,10 +12216,10 @@
         <v>6</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L32" s="2"/>
       <c r="Q32" s="13"/>
@@ -12287,7 +12275,7 @@
         <v>51674</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="10" t="n">
         <v>1</v>
@@ -12324,7 +12312,7 @@
         <v>51675</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" s="10" t="n">
         <v>1</v>
@@ -12361,7 +12349,7 @@
         <v>51676</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F36" s="10" t="n">
         <v>1</v>
@@ -12382,7 +12370,7 @@
         <v>22</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q36" s="13"/>
     </row>
@@ -12400,7 +12388,7 @@
         <v>51677</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F37" s="10" t="n">
         <v>1</v>
@@ -12437,7 +12425,7 @@
         <v>51678</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F38" s="10" t="n">
         <v>1</v>
@@ -12452,7 +12440,7 @@
         <v>6</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>22</v>
@@ -12474,7 +12462,7 @@
         <v>51679</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F39" s="10" t="n">
         <v>1</v>
@@ -12489,7 +12477,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>22</v>
@@ -12511,7 +12499,7 @@
         <v>51680</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F40" s="10" t="n">
         <v>1</v>
@@ -12526,7 +12514,7 @@
         <v>6</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>22</v>
@@ -12548,7 +12536,7 @@
         <v>51681</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F41" s="10" t="n">
         <v>1</v>
@@ -12563,13 +12551,13 @@
         <v>6</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q41" s="13"/>
     </row>
@@ -12587,7 +12575,7 @@
         <v>51682</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F42" s="10" t="n">
         <v>1</v>
@@ -12602,13 +12590,13 @@
         <v>6</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
@@ -12626,7 +12614,7 @@
         <v>51683</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F43" s="10" t="n">
         <v>2</v>
@@ -12647,7 +12635,7 @@
         <v>22</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="13"/>
     </row>
@@ -12665,7 +12653,7 @@
         <v>51684</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F44" s="10" t="n">
         <v>2</v>
@@ -12686,7 +12674,7 @@
         <v>22</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="13"/>
     </row>
@@ -12704,7 +12692,7 @@
         <v>51685</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F45" s="10" t="n">
         <v>2</v>
@@ -12725,7 +12713,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q45" s="13"/>
     </row>
@@ -12743,7 +12731,7 @@
         <v>51686</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F46" s="10" t="n">
         <v>2</v>
@@ -12764,7 +12752,7 @@
         <v>22</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q46" s="13"/>
     </row>
@@ -12782,7 +12770,7 @@
         <v>51687</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F47" s="10" t="n">
         <v>2</v>
@@ -12803,7 +12791,7 @@
         <v>22</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q47" s="13"/>
     </row>
@@ -12821,7 +12809,7 @@
         <v>51688</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="10" t="n">
         <v>2</v>
@@ -12836,13 +12824,13 @@
         <v>6</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
@@ -12860,7 +12848,7 @@
         <v>51689</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F49" s="10" t="n">
         <v>2</v>
@@ -12875,13 +12863,13 @@
         <v>6</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
@@ -12899,7 +12887,7 @@
         <v>51690</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="10" t="n">
         <v>2</v>
@@ -12914,13 +12902,13 @@
         <v>6</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
@@ -12938,7 +12926,7 @@
         <v>51691</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F51" s="10" t="n">
         <v>2</v>
@@ -12953,13 +12941,13 @@
         <v>6</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="13"/>
     </row>
@@ -12977,7 +12965,7 @@
         <v>51692</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F52" s="10" t="n">
         <v>2</v>
@@ -12992,13 +12980,13 @@
         <v>6</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q52" s="13"/>
     </row>
@@ -13016,7 +13004,7 @@
         <v>51700</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F53" s="10" t="n">
         <v>3</v>
@@ -13053,7 +13041,7 @@
         <v>51701</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F54" s="10" t="n">
         <v>3</v>
@@ -13090,7 +13078,7 @@
         <v>51702</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F55" s="10" t="n">
         <v>3</v>
@@ -13127,7 +13115,7 @@
         <v>51703</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F56" s="10" t="n">
         <v>3</v>
@@ -13164,7 +13152,7 @@
         <v>51708</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F57" s="10" t="n">
         <v>3</v>
@@ -13179,7 +13167,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>22</v>
@@ -13201,7 +13189,7 @@
         <v>51709</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F58" s="10" t="n">
         <v>3</v>
@@ -13216,7 +13204,7 @@
         <v>6</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K58" s="10" t="s">
         <v>22</v>
@@ -13238,7 +13226,7 @@
         <v>51710</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F59" s="10" t="n">
         <v>3</v>
@@ -13253,7 +13241,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>22</v>
@@ -13275,7 +13263,7 @@
         <v>51716</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F60" s="10" t="n">
         <v>3</v>
@@ -13290,7 +13278,7 @@
         <v>6</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>22</v>
@@ -13312,7 +13300,7 @@
         <v>51718</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F61" s="10" t="n">
         <v>4</v>
@@ -13349,7 +13337,7 @@
         <v>51720</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F62" s="10" t="n">
         <v>4</v>
@@ -13386,7 +13374,7 @@
         <v>51722</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F63" s="10" t="n">
         <v>4</v>
@@ -13423,7 +13411,7 @@
         <v>51725</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F64" s="10" t="n">
         <v>4</v>
@@ -13460,7 +13448,7 @@
         <v>51730</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F65" s="10" t="n">
         <v>4</v>
@@ -13475,10 +13463,10 @@
         <v>6</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L65" s="2"/>
       <c r="Q65" s="13"/>
@@ -13488,7 +13476,7 @@
         <v>1043</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>858</v>
@@ -13497,7 +13485,7 @@
         <v>51734</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F66" s="10" t="n">
         <v>4</v>
@@ -13512,10 +13500,10 @@
         <v>6</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L66" s="2"/>
       <c r="Q66" s="13"/>
@@ -13534,7 +13522,7 @@
         <v>51735</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F67" s="10" t="n">
         <v>4</v>
@@ -13549,7 +13537,7 @@
         <v>6</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>22</v>
@@ -13571,7 +13559,7 @@
         <v>51736</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F68" s="10" t="n">
         <v>4</v>
@@ -13586,10 +13574,10 @@
         <v>12</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L68" s="2"/>
       <c r="Q68" s="13"/>
@@ -13599,7 +13587,7 @@
         <v>1043</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>868</v>
@@ -13608,7 +13596,7 @@
         <v>51738</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F69" s="10" t="n">
         <v>4</v>
@@ -13623,10 +13611,10 @@
         <v>6</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L69" s="2"/>
       <c r="Q69" s="13"/>
@@ -13645,7 +13633,7 @@
         <v>51739</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F70" s="10" t="n">
         <v>4</v>
@@ -13660,7 +13648,7 @@
         <v>12</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>22</v>
@@ -13673,7 +13661,7 @@
         <v>1043</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>801</v>
@@ -13682,7 +13670,7 @@
         <v>53158</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F71" s="10" t="n">
         <v>3</v>
@@ -13700,7 +13688,7 @@
         <v>21</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L71" s="2"/>
       <c r="Q71" s="13"/>
@@ -13727,7 +13715,7 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
+      <selection pane="topLeft" activeCell="D48" activeCellId="1" sqref="2:2 D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13772,7 +13760,7 @@
         <v>11</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>13</v>
@@ -13795,7 +13783,7 @@
         <v>53008</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>1</v>
@@ -13830,7 +13818,7 @@
         <v>53009</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F3" s="16" t="n">
         <v>1</v>
@@ -13865,7 +13853,7 @@
         <v>53010</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="16" t="n">
         <v>1</v>
@@ -13900,7 +13888,7 @@
         <v>53011</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F5" s="16" t="n">
         <v>1</v>
@@ -13935,7 +13923,7 @@
         <v>53012</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F6" s="16" t="n">
         <v>1</v>
@@ -13970,7 +13958,7 @@
         <v>53013</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F7" s="16" t="n">
         <v>1</v>
@@ -13985,7 +13973,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>22</v>
@@ -14005,7 +13993,7 @@
         <v>53014</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="16" t="n">
         <v>1</v>
@@ -14020,7 +14008,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>22</v>
@@ -14040,7 +14028,7 @@
         <v>53015</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F9" s="16" t="n">
         <v>1</v>
@@ -14055,7 +14043,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>22</v>
@@ -14075,7 +14063,7 @@
         <v>53016</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F10" s="16" t="n">
         <v>1</v>
@@ -14090,7 +14078,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>22</v>
@@ -14110,7 +14098,7 @@
         <v>53017</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="16" t="n">
         <v>1</v>
@@ -14125,7 +14113,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>22</v>
@@ -14145,7 +14133,7 @@
         <v>53109</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F12" s="16" t="n">
         <v>2</v>
@@ -14180,7 +14168,7 @@
         <v>53110</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F13" s="16" t="n">
         <v>2</v>
@@ -14215,7 +14203,7 @@
         <v>53111</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F14" s="16" t="n">
         <v>2</v>
@@ -14250,7 +14238,7 @@
         <v>53112</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F15" s="16" t="n">
         <v>2</v>
@@ -14285,7 +14273,7 @@
         <v>53113</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F16" s="16" t="n">
         <v>2</v>
@@ -14320,7 +14308,7 @@
         <v>53114</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F17" s="16" t="n">
         <v>2</v>
@@ -14335,7 +14323,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>22</v>
@@ -14355,7 +14343,7 @@
         <v>53115</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F18" s="16" t="n">
         <v>2</v>
@@ -14370,7 +14358,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>22</v>
@@ -14390,7 +14378,7 @@
         <v>53116</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F19" s="16" t="n">
         <v>2</v>
@@ -14405,7 +14393,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>22</v>
@@ -14425,7 +14413,7 @@
         <v>53117</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F20" s="16" t="n">
         <v>2</v>
@@ -14440,7 +14428,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>22</v>
@@ -14460,7 +14448,7 @@
         <v>53118</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F21" s="16" t="n">
         <v>2</v>
@@ -14475,7 +14463,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>22</v>
@@ -14495,7 +14483,7 @@
         <v>53161</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F22" s="16" t="n">
         <v>3</v>
@@ -14530,7 +14518,7 @@
         <v>53162</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F23" s="16" t="n">
         <v>3</v>
@@ -14565,7 +14553,7 @@
         <v>53163</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F24" s="16" t="n">
         <v>3</v>
@@ -14600,7 +14588,7 @@
         <v>53164</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F25" s="16" t="n">
         <v>3</v>
@@ -14635,7 +14623,7 @@
         <v>53165</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F26" s="16" t="n">
         <v>3</v>
@@ -14670,25 +14658,25 @@
         <v>53210</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F27" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H27" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14705,25 +14693,25 @@
         <v>53211</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F28" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14740,25 +14728,25 @@
         <v>53212</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F29" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H29" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14775,25 +14763,25 @@
         <v>53213</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F30" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H30" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14810,25 +14798,25 @@
         <v>53214</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F31" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H31" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14845,7 +14833,7 @@
         <v>53215</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F32" s="16" t="n">
         <v>3</v>
@@ -14860,10 +14848,10 @@
         <v>6</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14880,25 +14868,25 @@
         <v>53218</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F33" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H33" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14915,7 +14903,7 @@
         <v>53220</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F34" s="16" t="n">
         <v>3</v>
@@ -14930,10 +14918,10 @@
         <v>6</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14950,7 +14938,7 @@
         <v>53221</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F35" s="16" t="n">
         <v>3</v>
@@ -14965,10 +14953,10 @@
         <v>6</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14985,25 +14973,25 @@
         <v>53222</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F36" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H36" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15020,25 +15008,25 @@
         <v>53223</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F37" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H37" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15055,7 +15043,7 @@
         <v>53226</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F38" s="16" t="n">
         <v>3</v>
@@ -15070,10 +15058,10 @@
         <v>6</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15090,7 +15078,7 @@
         <v>53283</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F39" s="16" t="n">
         <v>4</v>
@@ -15108,7 +15096,7 @@
         <v>21</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15125,7 +15113,7 @@
         <v>53286</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F40" s="16" t="n">
         <v>4</v>
@@ -15143,7 +15131,7 @@
         <v>21</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15160,25 +15148,25 @@
         <v>53296</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F41" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H41" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15195,25 +15183,25 @@
         <v>53303</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F42" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H42" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15230,7 +15218,7 @@
         <v>53304</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F43" s="16" t="n">
         <v>4</v>
@@ -15245,7 +15233,7 @@
         <v>12</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>22</v>
@@ -15265,7 +15253,7 @@
         <v>53308</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F44" s="16" t="n">
         <v>4</v>
@@ -15283,7 +15271,7 @@
         <v>21</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15300,7 +15288,7 @@
         <v>53309</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F45" s="16" t="n">
         <v>4</v>
@@ -15318,7 +15306,7 @@
         <v>21</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15335,25 +15323,25 @@
         <v>53310</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F46" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H46" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15361,7 +15349,7 @@
         <v>1056</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47" s="15" t="n">
         <v>820</v>
@@ -15370,25 +15358,25 @@
         <v>53407</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F47" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H47" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15396,7 +15384,7 @@
         <v>1056</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" s="15" t="n">
         <v>821</v>
@@ -15405,25 +15393,25 @@
         <v>53408</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F48" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H48" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15431,7 +15419,7 @@
         <v>1056</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15" t="n">
         <v>822</v>
@@ -15440,25 +15428,25 @@
         <v>53409</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F49" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H49" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15466,7 +15454,7 @@
         <v>1056</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C50" s="15" t="n">
         <v>823</v>
@@ -15475,25 +15463,25 @@
         <v>53410</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F50" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H50" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15501,7 +15489,7 @@
         <v>1056</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C51" s="15" t="n">
         <v>824</v>
@@ -15510,25 +15498,25 @@
         <v>53411</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F51" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H51" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15545,25 +15533,25 @@
         <v>53412</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F52" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H52" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15580,25 +15568,25 @@
         <v>53413</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F53" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H53" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15615,25 +15603,25 @@
         <v>53414</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F54" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H54" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15650,25 +15638,25 @@
         <v>53415</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F55" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H55" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15676,7 +15664,7 @@
         <v>1056</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C56" s="15" t="n">
         <v>924</v>
@@ -15685,25 +15673,25 @@
         <v>53416</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F56" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H56" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15720,25 +15708,25 @@
         <v>53417</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F57" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H57" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15755,25 +15743,25 @@
         <v>53418</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F58" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H58" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J58" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15790,25 +15778,25 @@
         <v>53419</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F59" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H59" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15825,25 +15813,25 @@
         <v>53420</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F60" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H60" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J60" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15851,7 +15839,7 @@
         <v>1056</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C61" s="15" t="n">
         <v>834</v>
@@ -15860,25 +15848,25 @@
         <v>53421</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F61" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H61" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15895,25 +15883,25 @@
         <v>53422</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F62" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H62" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15930,25 +15918,25 @@
         <v>53423</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F63" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H63" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J63" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15965,25 +15953,25 @@
         <v>53424</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F64" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H64" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16000,25 +15988,25 @@
         <v>53425</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F65" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H65" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16035,25 +16023,25 @@
         <v>53426</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F66" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H66" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16061,7 +16049,7 @@
         <v>1056</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C67" s="15" t="n">
         <v>934</v>
@@ -16070,25 +16058,25 @@
         <v>53427</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F67" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H67" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16096,7 +16084,7 @@
         <v>1056</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C68" s="15" t="n">
         <v>336</v>
@@ -16105,25 +16093,25 @@
         <v>53824</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F68" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H68" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16131,7 +16119,7 @@
         <v>1056</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="15" t="n">
         <v>337</v>
@@ -16140,25 +16128,25 @@
         <v>53825</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F69" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H69" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16166,7 +16154,7 @@
         <v>1056</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C70" s="15" t="n">
         <v>338</v>
@@ -16175,25 +16163,25 @@
         <v>53826</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F70" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H70" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16201,7 +16189,7 @@
         <v>1056</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C71" s="15" t="n">
         <v>339</v>
@@ -16210,7 +16198,7 @@
         <v>53827</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F71" s="16" t="n">
         <v>3</v>
@@ -16225,10 +16213,10 @@
         <v>6</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16236,7 +16224,7 @@
         <v>1056</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C72" s="15" t="n">
         <v>340</v>
@@ -16245,7 +16233,7 @@
         <v>53828</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F72" s="16" t="n">
         <v>3</v>
@@ -16260,10 +16248,10 @@
         <v>6</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K72" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16271,7 +16259,7 @@
         <v>1056</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="15" t="n">
         <v>341</v>
@@ -16280,25 +16268,25 @@
         <v>53829</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F73" s="16" t="n">
         <v>3</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H73" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16306,7 +16294,7 @@
         <v>1056</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C74" s="15" t="n">
         <v>935</v>
@@ -16315,7 +16303,7 @@
         <v>53830</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F74" s="16" t="n">
         <v>4</v>
@@ -16333,7 +16321,7 @@
         <v>21</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16341,7 +16329,7 @@
         <v>1056</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="15" t="n">
         <v>936</v>
@@ -16350,25 +16338,25 @@
         <v>53831</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F75" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H75" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J75" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16376,7 +16364,7 @@
         <v>1056</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C76" s="15" t="n">
         <v>937</v>
@@ -16385,25 +16373,25 @@
         <v>53832</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F76" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H76" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J76" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16411,7 +16399,7 @@
         <v>1056</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="15" t="n">
         <v>938</v>
@@ -16420,7 +16408,7 @@
         <v>53833</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F77" s="16" t="n">
         <v>4</v>
@@ -16438,7 +16426,7 @@
         <v>21</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16446,7 +16434,7 @@
         <v>1056</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C78" s="15" t="n">
         <v>939</v>
@@ -16455,25 +16443,25 @@
         <v>53834</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F78" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H78" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J78" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16481,7 +16469,7 @@
         <v>1056</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="15" t="n">
         <v>940</v>
@@ -16490,25 +16478,25 @@
         <v>53835</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F79" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H79" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J79" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16516,7 +16504,7 @@
         <v>1056</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="15" t="n">
         <v>941</v>
@@ -16525,25 +16513,25 @@
         <v>53836</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F80" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H80" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16551,7 +16539,7 @@
         <v>1056</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="15" t="n">
         <v>942</v>
@@ -16560,25 +16548,25 @@
         <v>53837</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F81" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H81" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16586,7 +16574,7 @@
         <v>1056</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="15" t="n">
         <v>943</v>
@@ -16595,25 +16583,25 @@
         <v>53838</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F82" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H82" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16621,7 +16609,7 @@
         <v>1056</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="15" t="n">
         <v>944</v>
@@ -16630,25 +16618,25 @@
         <v>53839</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F83" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H83" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16656,7 +16644,7 @@
         <v>1056</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="15" t="n">
         <v>945</v>
@@ -16665,25 +16653,25 @@
         <v>53840</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F84" s="16" t="n">
         <v>4</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H84" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J84" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -16708,7 +16696,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="1" sqref="2:2 M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16725,7 +16713,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16780,7 +16768,7 @@
         <v>50659</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>1</v>
@@ -16816,7 +16804,7 @@
         <v>50660</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>1</v>
@@ -16852,7 +16840,7 @@
         <v>50661</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>1</v>
@@ -16873,7 +16861,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16890,7 +16878,7 @@
         <v>50665</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>1</v>
@@ -16905,7 +16893,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>22</v>
@@ -16926,7 +16914,7 @@
         <v>50666</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>1</v>
@@ -16941,13 +16929,13 @@
         <v>6</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16964,7 +16952,7 @@
         <v>50667</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>1</v>
@@ -16979,13 +16967,13 @@
         <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17002,7 +16990,7 @@
         <v>50994</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
@@ -17023,7 +17011,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17031,7 +17019,7 @@
         <v>1073</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>304</v>
@@ -17040,7 +17028,7 @@
         <v>50995</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>3</v>
@@ -17061,7 +17049,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17078,7 +17066,7 @@
         <v>50996</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
@@ -17099,7 +17087,7 @@
         <v>22</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17116,7 +17104,7 @@
         <v>50997</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
@@ -17137,7 +17125,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17145,7 +17133,7 @@
         <v>1073</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>305</v>
@@ -17154,7 +17142,7 @@
         <v>50998</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>3</v>
@@ -17175,7 +17163,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17183,7 +17171,7 @@
         <v>1073</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>310</v>
@@ -17192,7 +17180,7 @@
         <v>50999</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>3</v>
@@ -17207,13 +17195,13 @@
         <v>6</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17221,7 +17209,7 @@
         <v>1073</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>311</v>
@@ -17230,7 +17218,7 @@
         <v>51000</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>3</v>
@@ -17245,13 +17233,13 @@
         <v>6</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17268,7 +17256,7 @@
         <v>51001</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>2</v>
@@ -17283,13 +17271,13 @@
         <v>6</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17306,7 +17294,7 @@
         <v>51002</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>2</v>
@@ -17321,13 +17309,13 @@
         <v>6</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17344,7 +17332,7 @@
         <v>51003</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>2</v>
@@ -17359,13 +17347,13 @@
         <v>6</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17373,7 +17361,7 @@
         <v>1073</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>306</v>
@@ -17382,7 +17370,7 @@
         <v>51007</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>3</v>
@@ -17409,7 +17397,7 @@
         <v>1073</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>411</v>
@@ -17418,7 +17406,7 @@
         <v>51008</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>4</v>
@@ -17436,7 +17424,7 @@
         <v>21</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -17445,7 +17433,7 @@
         <v>1073</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>404</v>
@@ -17454,7 +17442,7 @@
         <v>51009</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>4</v>
@@ -17481,7 +17469,7 @@
         <v>1073</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>405</v>
@@ -17490,7 +17478,7 @@
         <v>51011</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>4</v>
@@ -17517,7 +17505,7 @@
         <v>1073</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>409</v>
@@ -17526,7 +17514,7 @@
         <v>51015</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>4</v>
@@ -17541,7 +17529,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>22</v>
@@ -17553,7 +17541,7 @@
         <v>1073</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>412</v>
@@ -17562,7 +17550,7 @@
         <v>51016</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>4</v>
@@ -17577,10 +17565,10 @@
         <v>6</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L23" s="2"/>
     </row>
@@ -17589,7 +17577,7 @@
         <v>1073</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>312</v>
@@ -17598,7 +17586,7 @@
         <v>51024</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>3</v>
@@ -17613,7 +17601,7 @@
         <v>6</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>22</v>
@@ -17625,7 +17613,7 @@
         <v>1073</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>410</v>
@@ -17634,7 +17622,7 @@
         <v>51025</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>4</v>
@@ -17649,7 +17637,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>22</v>
@@ -17661,7 +17649,7 @@
         <v>1073</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>510</v>
@@ -17670,7 +17658,7 @@
         <v>51029</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>5</v>
@@ -17688,7 +17676,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L26" s="2"/>
     </row>
@@ -17697,7 +17685,7 @@
         <v>1073</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>507</v>
@@ -17706,7 +17694,7 @@
         <v>51036</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>5</v>
@@ -17724,7 +17712,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -17733,7 +17721,7 @@
         <v>1073</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>508</v>
@@ -17742,7 +17730,7 @@
         <v>51041</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>5</v>
@@ -17760,7 +17748,7 @@
         <v>21</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L28" s="2"/>
     </row>
@@ -17769,7 +17757,7 @@
         <v>1073</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>509</v>
@@ -17778,7 +17766,7 @@
         <v>51046</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>5</v>
@@ -17796,7 +17784,7 @@
         <v>21</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L29" s="2"/>
     </row>
@@ -17805,7 +17793,7 @@
         <v>1073</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>506</v>
@@ -17814,7 +17802,7 @@
         <v>51055</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>5</v>
@@ -17829,7 +17817,7 @@
         <v>6</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>22</v>
@@ -17841,7 +17829,7 @@
         <v>1073</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>512</v>
@@ -17850,7 +17838,7 @@
         <v>51059</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>5</v>
@@ -17865,7 +17853,7 @@
         <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>22</v>
@@ -17886,7 +17874,7 @@
         <v>51478</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>1</v>
@@ -17922,7 +17910,7 @@
         <v>51479</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>1</v>
@@ -17958,7 +17946,7 @@
         <v>51481</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>2</v>
@@ -17979,7 +17967,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17996,7 +17984,7 @@
         <v>51483</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>1</v>
@@ -18011,7 +17999,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>22</v>
@@ -18032,7 +18020,7 @@
         <v>51484</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>1</v>
@@ -18047,7 +18035,7 @@
         <v>6</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>22</v>
@@ -18068,7 +18056,7 @@
         <v>51486</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>2</v>
@@ -18083,7 +18071,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>22</v>
@@ -18104,7 +18092,7 @@
         <v>51487</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>1</v>
@@ -18119,7 +18107,7 @@
         <v>12</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>22</v>
@@ -18140,7 +18128,7 @@
         <v>51488</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>2</v>
@@ -18176,7 +18164,7 @@
         <v>51489</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>2</v>
@@ -18203,7 +18191,7 @@
         <v>1073</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>302</v>
@@ -18212,7 +18200,7 @@
         <v>51491</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>3</v>
@@ -18239,7 +18227,7 @@
         <v>1073</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>301</v>
@@ -18248,7 +18236,7 @@
         <v>51492</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>3</v>
@@ -18284,7 +18272,7 @@
         <v>51493</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>2</v>
@@ -18299,7 +18287,7 @@
         <v>6</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>22</v>
@@ -18320,7 +18308,7 @@
         <v>51494</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>2</v>
@@ -18335,7 +18323,7 @@
         <v>6</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>22</v>
@@ -18347,7 +18335,7 @@
         <v>1073</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>307</v>
@@ -18356,7 +18344,7 @@
         <v>51496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>3</v>
@@ -18371,7 +18359,7 @@
         <v>6</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>22</v>
@@ -18383,7 +18371,7 @@
         <v>1073</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>308</v>
@@ -18392,7 +18380,7 @@
         <v>51497</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>3</v>
@@ -18407,7 +18395,7 @@
         <v>6</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>22</v>
@@ -18419,7 +18407,7 @@
         <v>1073</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>303</v>
@@ -18428,7 +18416,7 @@
         <v>51498</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>3</v>
@@ -18455,7 +18443,7 @@
         <v>1073</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>501</v>
@@ -18464,7 +18452,7 @@
         <v>51499</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>5</v>
@@ -18491,7 +18479,7 @@
         <v>1073</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>401</v>
@@ -18500,7 +18488,7 @@
         <v>51500</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>4</v>
@@ -18527,7 +18515,7 @@
         <v>1073</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>402</v>
@@ -18536,7 +18524,7 @@
         <v>51501</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>4</v>
@@ -18563,7 +18551,7 @@
         <v>1073</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>403</v>
@@ -18572,7 +18560,7 @@
         <v>51502</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>4</v>
@@ -18599,7 +18587,7 @@
         <v>1073</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>406</v>
@@ -18608,7 +18596,7 @@
         <v>51503</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>4</v>
@@ -18623,7 +18611,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>22</v>
@@ -18635,7 +18623,7 @@
         <v>1073</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>407</v>
@@ -18644,7 +18632,7 @@
         <v>51504</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>4</v>
@@ -18659,7 +18647,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>22</v>
@@ -18671,7 +18659,7 @@
         <v>1073</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>408</v>
@@ -18680,7 +18668,7 @@
         <v>51505</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>4</v>
@@ -18695,7 +18683,7 @@
         <v>6</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>22</v>
@@ -18707,7 +18695,7 @@
         <v>1073</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>504</v>
@@ -18716,7 +18704,7 @@
         <v>51506</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>5</v>
@@ -18731,7 +18719,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>22</v>
@@ -18743,7 +18731,7 @@
         <v>1073</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>309</v>
@@ -18752,7 +18740,7 @@
         <v>51507</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>3</v>
@@ -18767,7 +18755,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>22</v>
@@ -18779,7 +18767,7 @@
         <v>1073</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>502</v>
@@ -18788,7 +18776,7 @@
         <v>51521</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>5</v>
@@ -18815,7 +18803,7 @@
         <v>1073</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>503</v>
@@ -18824,7 +18812,7 @@
         <v>51526</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>5</v>
@@ -18851,7 +18839,7 @@
         <v>1073</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>505</v>
@@ -18860,7 +18848,7 @@
         <v>51536</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>5</v>
@@ -18875,7 +18863,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>22</v>
@@ -18887,7 +18875,7 @@
         <v>1073</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>511</v>
@@ -18896,7 +18884,7 @@
         <v>51539</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>5</v>
@@ -18911,7 +18899,7 @@
         <v>12</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>22</v>
